--- a/COCID-19-TW-PlaceCode.xlsx
+++ b/COCID-19-TW-PlaceCode.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CodeBook" sheetId="1" r:id="rId1"/>
+    <sheet name="傳染病統計資料查詢系統" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">name                  </t>
   </si>
@@ -235,6 +236,14 @@
   </si>
   <si>
     <t>2020/3/29 第13周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nidss.cdc.gov.tw/ch/NIDSS_DiseaseMap.aspx?dc=1&amp;dt=5&amp;disease=19CoV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳染病統計資料查詢系統</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +316,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -361,14 +370,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="53"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="54">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -422,6 +433,7 @@
     <cellStyle name="超連結" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="53" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -753,7 +765,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -767,6 +779,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
+      <c r="A1" s="4"/>
       <c r="D1" s="3" t="s">
         <v>71</v>
       </c>
@@ -1099,6 +1112,40 @@
       </c>
       <c r="D25" s="1">
         <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="69.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/COCID-19-TW-PlaceCode.xlsx
+++ b/COCID-19-TW-PlaceCode.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t xml:space="preserve">name                  </t>
   </si>
@@ -251,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,6 +298,19 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -372,12 +385,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="53"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -762,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D25" sqref="D25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -773,18 +788,16 @@
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="D1" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17">
+    <row r="2" spans="1:5" ht="17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -794,11 +807,14 @@
       <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17">
+      <c r="E2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -811,8 +827,11 @@
       <c r="D3" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17">
+      <c r="E3" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -825,8 +844,11 @@
       <c r="D4" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17">
+      <c r="E4" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -839,8 +861,11 @@
       <c r="D5" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17">
+      <c r="E5" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -853,8 +878,11 @@
       <c r="D6" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17">
+      <c r="E6" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -867,8 +895,11 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17">
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -881,8 +912,11 @@
       <c r="D8" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="17">
+      <c r="E8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -895,8 +929,11 @@
       <c r="D9" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17">
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -909,8 +946,11 @@
       <c r="D10" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17">
+      <c r="E10" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -923,8 +963,11 @@
       <c r="D11" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="17">
+      <c r="E11" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -937,8 +980,11 @@
       <c r="D12" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17">
+      <c r="E12" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -951,8 +997,11 @@
       <c r="D13" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="17">
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -965,8 +1014,11 @@
       <c r="D14" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="17">
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -979,8 +1031,11 @@
       <c r="D15" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="17">
+      <c r="E15" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -993,8 +1048,11 @@
       <c r="D16" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="17">
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1007,8 +1065,11 @@
       <c r="D17" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="17">
+      <c r="E17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1021,8 +1082,11 @@
       <c r="D18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="17">
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1035,8 +1099,11 @@
       <c r="D19" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="17">
+      <c r="E19" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1049,8 +1116,11 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="17">
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1063,8 +1133,11 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="17">
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1077,8 +1150,11 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="17">
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1091,8 +1167,11 @@
       <c r="D23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="17">
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1105,13 +1184,21 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="17">
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D25" s="1">
+        <f>SUM(D3:D24)</f>
         <v>298</v>
+      </c>
+      <c r="E25" s="1">
+        <f>SUM(E3:E24)</f>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/COCID-19-TW-PlaceCode.xlsx
+++ b/COCID-19-TW-PlaceCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CodeBook" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t xml:space="preserve">name                  </t>
   </si>
@@ -233,10 +233,6 @@
   </si>
   <si>
     <t>共計</t>
-  </si>
-  <si>
-    <t>2020/3/29 第13周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://nidss.cdc.gov.tw/ch/NIDSS_DiseaseMap.aspx?dc=1&amp;dt=5&amp;disease=19CoV</t>
@@ -251,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -311,6 +307,20 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -329,7 +339,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -384,8 +394,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -393,8 +410,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="53"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="61">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -422,6 +441,13 @@
     <cellStyle name="已瀏覽過的超連結" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
@@ -777,27 +803,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:E25"/>
+      <selection activeCell="G25" sqref="G25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:14">
       <c r="A1" s="4"/>
-      <c r="D1" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17">
+      <c r="D1" s="3">
+        <v>43919</v>
+      </c>
+      <c r="E1" s="3">
+        <v>43920</v>
+      </c>
+      <c r="F1" s="3">
+        <v>43921</v>
+      </c>
+      <c r="G1" s="3">
+        <v>43922</v>
+      </c>
+      <c r="H1" s="3">
+        <v>43923</v>
+      </c>
+      <c r="I1" s="3">
+        <v>43924</v>
+      </c>
+      <c r="J1" s="3">
+        <v>43925</v>
+      </c>
+      <c r="K1" s="3">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -813,8 +862,28 @@
       <c r="E2" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18">
+      <c r="F2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="18">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -830,8 +899,21 @@
       <c r="E3" s="5">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18">
+      <c r="F3" s="5">
+        <v>91</v>
+      </c>
+      <c r="G3" s="5">
+        <v>93</v>
+      </c>
+      <c r="H3" s="5">
+        <v>96</v>
+      </c>
+      <c r="I3" s="5">
+        <v>100</v>
+      </c>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="18">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -847,8 +929,21 @@
       <c r="E4" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18">
+      <c r="F4" s="5">
+        <v>33</v>
+      </c>
+      <c r="G4" s="5">
+        <v>33</v>
+      </c>
+      <c r="H4" s="5">
+        <v>33</v>
+      </c>
+      <c r="I4" s="5">
+        <v>34</v>
+      </c>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="18">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -864,8 +959,21 @@
       <c r="E5" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18">
+      <c r="F5" s="5">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5">
+        <v>13</v>
+      </c>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="18">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -881,8 +989,21 @@
       <c r="E6" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="18">
+      <c r="F6" s="5">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5">
+        <v>27</v>
+      </c>
+      <c r="H6" s="5">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5">
+        <v>27</v>
+      </c>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="18">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -898,8 +1019,21 @@
       <c r="E7" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18">
+      <c r="F7" s="5">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="18">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -915,8 +1049,21 @@
       <c r="E8" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="18">
+      <c r="F8" s="5">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5">
+        <v>8</v>
+      </c>
+      <c r="H8" s="5">
+        <v>8</v>
+      </c>
+      <c r="I8" s="5">
+        <v>9</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="18">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -932,8 +1079,21 @@
       <c r="E9" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="18">
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="18">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -949,8 +1109,21 @@
       <c r="E10" s="5">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="18">
+      <c r="F10" s="5">
+        <v>75</v>
+      </c>
+      <c r="G10" s="5">
+        <v>77</v>
+      </c>
+      <c r="H10" s="5">
+        <v>80</v>
+      </c>
+      <c r="I10" s="5">
+        <v>82</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="18">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -966,8 +1139,21 @@
       <c r="E11" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="18">
+      <c r="F11" s="5">
+        <v>32</v>
+      </c>
+      <c r="G11" s="5">
+        <v>32</v>
+      </c>
+      <c r="H11" s="5">
+        <v>34</v>
+      </c>
+      <c r="I11" s="5">
+        <v>35</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="18">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -983,8 +1169,21 @@
       <c r="E12" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="18">
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5">
+        <v>5</v>
+      </c>
+      <c r="H12" s="5">
+        <v>6</v>
+      </c>
+      <c r="I12" s="5">
+        <v>6</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="18">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1000,8 +1199,21 @@
       <c r="E13" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="18">
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2</v>
+      </c>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="18">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1017,8 +1229,21 @@
       <c r="E14" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="18">
+      <c r="F14" s="5">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3</v>
+      </c>
+      <c r="I14" s="5">
+        <v>3</v>
+      </c>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="18">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1034,8 +1259,21 @@
       <c r="E15" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="18">
+      <c r="F15" s="5">
+        <v>16</v>
+      </c>
+      <c r="G15" s="5">
+        <v>16</v>
+      </c>
+      <c r="H15" s="5">
+        <v>17</v>
+      </c>
+      <c r="I15" s="5">
+        <v>17</v>
+      </c>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="18">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1051,8 +1289,21 @@
       <c r="E16" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="18">
+      <c r="F16" s="5">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2</v>
+      </c>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" ht="18">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1068,8 +1319,21 @@
       <c r="E17" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="18">
+      <c r="F17" s="5">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5">
+        <v>4</v>
+      </c>
+      <c r="H17" s="5">
+        <v>4</v>
+      </c>
+      <c r="I17" s="5">
+        <v>4</v>
+      </c>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" ht="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1085,8 +1349,21 @@
       <c r="E18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="18">
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" ht="18">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1102,8 +1379,21 @@
       <c r="E19" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="18">
+      <c r="F19" s="5">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5">
+        <v>7</v>
+      </c>
+      <c r="H19" s="5">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5">
+        <v>7</v>
+      </c>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" ht="18">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1119,8 +1409,21 @@
       <c r="E20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="18">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" ht="18">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1136,8 +1439,21 @@
       <c r="E21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="18">
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" ht="18">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1153,8 +1469,21 @@
       <c r="E22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="18">
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" ht="18">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1170,8 +1499,21 @@
       <c r="E23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="18">
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" ht="18">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1187,8 +1529,21 @@
       <c r="E24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="17">
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" ht="18">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
@@ -1200,6 +1555,24 @@
         <f>SUM(E3:E24)</f>
         <v>306</v>
       </c>
+      <c r="F25" s="1">
+        <f>SUM(F3:F24)</f>
+        <v>322</v>
+      </c>
+      <c r="G25" s="1">
+        <f>SUM(G3:G24)</f>
+        <v>329</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" ref="H25:I25" si="0">SUM(H3:H24)</f>
+        <v>339</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1229,10 +1602,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/COCID-19-TW-PlaceCode.xlsx
+++ b/COCID-19-TW-PlaceCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CodeBook" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t xml:space="preserve">name                  </t>
   </si>
@@ -247,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,20 +307,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -339,7 +325,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -401,8 +387,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -410,10 +397,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="53"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="62">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -448,6 +433,7 @@
     <cellStyle name="已瀏覽過的超連結" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
@@ -806,7 +792,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:I25"/>
+      <selection activeCell="K2" sqref="K2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -845,6 +831,15 @@
       <c r="K1" s="3">
         <v>43926</v>
       </c>
+      <c r="L1" s="3">
+        <v>43927</v>
+      </c>
+      <c r="M1" s="3">
+        <v>43928</v>
+      </c>
+      <c r="N1" s="3">
+        <v>43929</v>
+      </c>
     </row>
     <row r="2" spans="1:14" ht="17">
       <c r="A2" t="s">
@@ -880,8 +875,15 @@
       <c r="K2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="L2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="18">
       <c r="A3" t="s">
@@ -911,7 +913,9 @@
       <c r="I3" s="5">
         <v>100</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="J3" s="5">
+        <v>104</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="18">
       <c r="A4" t="s">
@@ -941,7 +945,9 @@
       <c r="I4" s="5">
         <v>34</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="J4" s="5">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="18">
       <c r="A5" t="s">
@@ -971,7 +977,9 @@
       <c r="I5" s="5">
         <v>13</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="J5" s="5">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="18">
       <c r="A6" t="s">
@@ -1001,7 +1009,9 @@
       <c r="I6" s="5">
         <v>27</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="J6" s="5">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="18">
       <c r="A7" t="s">
@@ -1031,7 +1041,9 @@
       <c r="I7" s="5">
         <v>3</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="J7" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="18">
       <c r="A8" t="s">
@@ -1061,7 +1073,9 @@
       <c r="I8" s="5">
         <v>9</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="J8" s="5">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="18">
       <c r="A9" t="s">
@@ -1091,7 +1105,9 @@
       <c r="I9" s="5">
         <v>3</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="J9" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="18">
       <c r="A10" t="s">
@@ -1121,7 +1137,9 @@
       <c r="I10" s="5">
         <v>82</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="J10" s="5">
+        <v>83</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="18">
       <c r="A11" t="s">
@@ -1151,7 +1169,9 @@
       <c r="I11" s="5">
         <v>35</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="J11" s="5">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="18">
       <c r="A12" t="s">
@@ -1181,7 +1201,9 @@
       <c r="I12" s="5">
         <v>6</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="J12" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="18">
       <c r="A13" t="s">
@@ -1211,7 +1233,9 @@
       <c r="I13" s="5">
         <v>2</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="J13" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="18">
       <c r="A14" t="s">
@@ -1241,7 +1265,9 @@
       <c r="I14" s="5">
         <v>3</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="J14" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="18">
       <c r="A15" t="s">
@@ -1271,7 +1297,9 @@
       <c r="I15" s="5">
         <v>17</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="J15" s="5">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="18">
       <c r="A16" t="s">
@@ -1301,9 +1329,11 @@
       <c r="I16" s="5">
         <v>2</v>
       </c>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" ht="18">
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1331,9 +1361,11 @@
       <c r="I17" s="5">
         <v>4</v>
       </c>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:14" ht="18">
+      <c r="J17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1361,9 +1393,11 @@
       <c r="I18" s="5">
         <v>1</v>
       </c>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" ht="18">
+      <c r="J18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1391,9 +1425,11 @@
       <c r="I19" s="5">
         <v>7</v>
       </c>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" ht="18">
+      <c r="J19" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1421,9 +1457,11 @@
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" ht="18">
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1451,9 +1489,11 @@
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" ht="18">
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1481,9 +1521,11 @@
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" ht="18">
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1511,9 +1553,11 @@
       <c r="I23" s="5">
         <v>0</v>
       </c>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" ht="18">
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1541,9 +1585,11 @@
       <c r="I24" s="5">
         <v>0</v>
       </c>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" ht="18">
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="17">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
@@ -1571,8 +1617,6 @@
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/COCID-19-TW-PlaceCode.xlsx
+++ b/COCID-19-TW-PlaceCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CodeBook" sheetId="1" r:id="rId1"/>
     <sheet name="傳染病統計資料查詢系統" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -247,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,6 +307,12 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -389,7 +395,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -397,6 +403,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="53"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -464,6 +476,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -792,20 +809,21 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:N2"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="D1" s="3">
         <v>43919</v>
@@ -828,7 +846,7 @@
       <c r="J1" s="3">
         <v>43925</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="7">
         <v>43926</v>
       </c>
       <c r="L1" s="3">
@@ -841,7 +859,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17">
+    <row r="2" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -872,7 +890,7 @@
       <c r="J2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>47</v>
       </c>
       <c r="L2" s="6" t="s">
@@ -885,7 +903,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18">
+    <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -916,8 +934,11 @@
       <c r="J3" s="5">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="18">
+      <c r="K3" s="10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -948,8 +969,11 @@
       <c r="J4" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="18">
+      <c r="K4" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -980,8 +1004,11 @@
       <c r="J5" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="18">
+      <c r="K5" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1012,8 +1039,11 @@
       <c r="J6" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="18">
+      <c r="K6" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1044,8 +1074,11 @@
       <c r="J7" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="18">
+      <c r="K7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1076,8 +1109,11 @@
       <c r="J8" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="18">
+      <c r="K8" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1108,8 +1144,11 @@
       <c r="J9" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="18">
+      <c r="K9" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1140,8 +1179,11 @@
       <c r="J10" s="5">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="18">
+      <c r="K10" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1214,11 @@
       <c r="J11" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="18">
+      <c r="K11" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1204,8 +1249,11 @@
       <c r="J12" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="18">
+      <c r="K12" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1236,8 +1284,11 @@
       <c r="J13" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="18">
+      <c r="K13" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1268,8 +1319,11 @@
       <c r="J14" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="18">
+      <c r="K14" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1300,8 +1354,11 @@
       <c r="J15" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="18">
+      <c r="K15" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1332,8 +1389,11 @@
       <c r="J16" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="18">
+      <c r="K16" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1364,8 +1424,11 @@
       <c r="J17" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="18">
+      <c r="K17" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1396,8 +1459,11 @@
       <c r="J18" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="18">
+      <c r="K18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1428,8 +1494,11 @@
       <c r="J19" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="18">
+      <c r="K19" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1460,8 +1529,11 @@
       <c r="J20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="18">
+      <c r="K20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1492,8 +1564,11 @@
       <c r="J21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="18">
+      <c r="K21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1524,8 +1599,11 @@
       <c r="J22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="18">
+      <c r="K22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1556,8 +1634,11 @@
       <c r="J23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="18">
+      <c r="K23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1588,8 +1669,11 @@
       <c r="J24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="17">
+      <c r="K24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
@@ -1610,18 +1694,26 @@
         <v>329</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:I25" si="0">SUM(H3:H24)</f>
+        <f t="shared" ref="H25:K25" si="0">SUM(H3:H24)</f>
         <v>339</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="0"/>
+        <v>363</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1638,13 +1730,13 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.33203125" customWidth="1"/>
+    <col min="1" max="1" width="69.375" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>

--- a/COCID-19-TW-PlaceCode.xlsx
+++ b/COCID-19-TW-PlaceCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CodeBook" sheetId="1" r:id="rId1"/>
     <sheet name="傳染病統計資料查詢系統" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t xml:space="preserve">name                  </t>
   </si>
@@ -247,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,12 +307,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -331,7 +325,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -394,8 +388,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -403,14 +400,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="53"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="65">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -446,6 +437,9 @@
     <cellStyle name="已瀏覽過的超連結" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
@@ -476,11 +470,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -806,24 +795,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="N2" sqref="N2:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="4"/>
       <c r="D1" s="3">
         <v>43919</v>
@@ -846,7 +834,7 @@
       <c r="J1" s="3">
         <v>43925</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="3">
         <v>43926</v>
       </c>
       <c r="L1" s="3">
@@ -858,8 +846,23 @@
       <c r="N1" s="3">
         <v>43929</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="O1" s="3">
+        <v>43930</v>
+      </c>
+      <c r="P1" s="3">
+        <v>43931</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>43932</v>
+      </c>
+      <c r="R1" s="3">
+        <v>43933</v>
+      </c>
+      <c r="S1" s="3">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -890,7 +893,7 @@
       <c r="J2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>47</v>
       </c>
       <c r="L2" s="6" t="s">
@@ -902,8 +905,23 @@
       <c r="N2" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="O2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="18">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -934,11 +952,17 @@
       <c r="J3" s="5">
         <v>104</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="5">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="L3" s="5">
+        <v>107</v>
+      </c>
+      <c r="M3" s="5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -969,11 +993,17 @@
       <c r="J4" s="5">
         <v>34</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="L4" s="5">
+        <v>37</v>
+      </c>
+      <c r="M4" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="18">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1004,11 +1034,17 @@
       <c r="J5" s="5">
         <v>13</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="L5" s="5">
+        <v>14</v>
+      </c>
+      <c r="M5" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="18">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1039,11 +1075,17 @@
       <c r="J6" s="5">
         <v>27</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="L6" s="5">
+        <v>27</v>
+      </c>
+      <c r="M6" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="18">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1074,11 +1116,17 @@
       <c r="J7" s="5">
         <v>3</v>
       </c>
-      <c r="K7" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="K7" s="5">
+        <v>3</v>
+      </c>
+      <c r="L7" s="5">
+        <v>6</v>
+      </c>
+      <c r="M7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="18">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1109,11 +1157,17 @@
       <c r="J8" s="5">
         <v>9</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="L8" s="5">
+        <v>11</v>
+      </c>
+      <c r="M8" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="18">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1144,11 +1198,17 @@
       <c r="J9" s="5">
         <v>3</v>
       </c>
-      <c r="K9" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="K9" s="5">
+        <v>3</v>
+      </c>
+      <c r="L9" s="5">
+        <v>3</v>
+      </c>
+      <c r="M9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1179,11 +1239,17 @@
       <c r="J10" s="5">
         <v>83</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="5">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="L10" s="5">
+        <v>85</v>
+      </c>
+      <c r="M10" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="18">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1214,11 +1280,17 @@
       <c r="J11" s="5">
         <v>36</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="L11" s="5">
+        <v>39</v>
+      </c>
+      <c r="M11" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="18">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1249,11 +1321,17 @@
       <c r="J12" s="5">
         <v>6</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="L12" s="5">
+        <v>6</v>
+      </c>
+      <c r="M12" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="18">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1284,11 +1362,17 @@
       <c r="J13" s="5">
         <v>2</v>
       </c>
-      <c r="K13" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="K13" s="5">
+        <v>2</v>
+      </c>
+      <c r="L13" s="5">
+        <v>2</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="18">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1319,11 +1403,17 @@
       <c r="J14" s="5">
         <v>3</v>
       </c>
-      <c r="K14" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="K14" s="5">
+        <v>3</v>
+      </c>
+      <c r="L14" s="5">
+        <v>3</v>
+      </c>
+      <c r="M14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="18">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1354,11 +1444,17 @@
       <c r="J15" s="5">
         <v>17</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="L15" s="5">
+        <v>18</v>
+      </c>
+      <c r="M15" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="18">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1389,11 +1485,17 @@
       <c r="J16" s="5">
         <v>2</v>
       </c>
-      <c r="K16" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="K16" s="5">
+        <v>2</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2</v>
+      </c>
+      <c r="M16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1424,11 +1526,17 @@
       <c r="J17" s="5">
         <v>4</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="L17" s="5">
+        <v>4</v>
+      </c>
+      <c r="M17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1459,11 +1567,17 @@
       <c r="J18" s="5">
         <v>2</v>
       </c>
-      <c r="K18" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="K18" s="5">
+        <v>2</v>
+      </c>
+      <c r="L18" s="5">
+        <v>2</v>
+      </c>
+      <c r="M18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1494,11 +1608,17 @@
       <c r="J19" s="5">
         <v>7</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="L19" s="5">
+        <v>7</v>
+      </c>
+      <c r="M19" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1529,11 +1649,17 @@
       <c r="J20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1564,11 +1690,17 @@
       <c r="J21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1599,11 +1731,17 @@
       <c r="J22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1634,11 +1772,17 @@
       <c r="J23" s="5">
         <v>0</v>
       </c>
-      <c r="K23" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1669,11 +1813,17 @@
       <c r="J24" s="5">
         <v>0</v>
       </c>
-      <c r="K24" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
@@ -1694,7 +1844,7 @@
         <v>329</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:K25" si="0">SUM(H3:H24)</f>
+        <f t="shared" ref="H25:M25" si="0">SUM(H3:H24)</f>
         <v>339</v>
       </c>
       <c r="I25" s="1">
@@ -1709,11 +1859,19 @@
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
+      <c r="L25" s="1">
+        <f t="shared" si="0"/>
+        <v>373</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="0"/>
+        <v>376</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1730,13 +1888,13 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="69.375" customWidth="1"/>
+    <col min="1" max="1" width="69.33203125" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>71</v>
       </c>

--- a/COCID-19-TW-PlaceCode.xlsx
+++ b/COCID-19-TW-PlaceCode.xlsx
@@ -325,7 +325,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -380,6 +380,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -401,7 +402,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="66">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -440,6 +441,7 @@
     <cellStyle name="已瀏覽過的超連結" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
@@ -798,7 +800,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:S2"/>
+      <selection activeCell="M25" sqref="M25:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -961,6 +963,9 @@
       <c r="M3" s="5">
         <v>107</v>
       </c>
+      <c r="N3" s="5">
+        <v>107</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="18">
       <c r="A4" t="s">
@@ -1002,6 +1007,9 @@
       <c r="M4" s="5">
         <v>37</v>
       </c>
+      <c r="N4" s="5">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="18">
       <c r="A5" t="s">
@@ -1043,6 +1051,9 @@
       <c r="M5" s="5">
         <v>14</v>
       </c>
+      <c r="N5" s="5">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="18">
       <c r="A6" t="s">
@@ -1084,6 +1095,9 @@
       <c r="M6" s="5">
         <v>28</v>
       </c>
+      <c r="N6" s="5">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="18">
       <c r="A7" t="s">
@@ -1125,6 +1139,9 @@
       <c r="M7" s="5">
         <v>6</v>
       </c>
+      <c r="N7" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="18">
       <c r="A8" t="s">
@@ -1166,6 +1183,9 @@
       <c r="M8" s="5">
         <v>11</v>
       </c>
+      <c r="N8" s="5">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="18">
       <c r="A9" t="s">
@@ -1207,6 +1227,9 @@
       <c r="M9" s="5">
         <v>3</v>
       </c>
+      <c r="N9" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="18">
       <c r="A10" t="s">
@@ -1246,6 +1269,9 @@
         <v>85</v>
       </c>
       <c r="M10" s="5">
+        <v>86</v>
+      </c>
+      <c r="N10" s="5">
         <v>86</v>
       </c>
     </row>
@@ -1289,6 +1315,9 @@
       <c r="M11" s="5">
         <v>40</v>
       </c>
+      <c r="N11" s="5">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="18">
       <c r="A12" t="s">
@@ -1330,6 +1359,9 @@
       <c r="M12" s="5">
         <v>6</v>
       </c>
+      <c r="N12" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="18">
       <c r="A13" t="s">
@@ -1371,6 +1403,9 @@
       <c r="M13" s="5">
         <v>2</v>
       </c>
+      <c r="N13" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="18">
       <c r="A14" t="s">
@@ -1412,6 +1447,9 @@
       <c r="M14" s="5">
         <v>3</v>
       </c>
+      <c r="N14" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="18">
       <c r="A15" t="s">
@@ -1453,6 +1491,9 @@
       <c r="M15" s="5">
         <v>18</v>
       </c>
+      <c r="N15" s="5">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="18">
       <c r="A16" t="s">
@@ -1494,8 +1535,11 @@
       <c r="M16" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="18">
+      <c r="N16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1535,8 +1579,11 @@
       <c r="M17" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="18">
+      <c r="N17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1576,8 +1623,11 @@
       <c r="M18" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="18">
+      <c r="N18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1617,8 +1667,11 @@
       <c r="M19" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="18">
+      <c r="N19" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1658,8 +1711,11 @@
       <c r="M20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="18">
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1699,8 +1755,11 @@
       <c r="M21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="18">
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1740,8 +1799,11 @@
       <c r="M22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="18">
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1781,8 +1843,11 @@
       <c r="M23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="18">
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1822,8 +1887,11 @@
       <c r="M24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="17">
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
@@ -1844,7 +1912,7 @@
         <v>329</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:M25" si="0">SUM(H3:H24)</f>
+        <f t="shared" ref="H25:N25" si="0">SUM(H3:H24)</f>
         <v>339</v>
       </c>
       <c r="I25" s="1">
@@ -1866,6 +1934,10 @@
       <c r="M25" s="1">
         <f t="shared" si="0"/>
         <v>376</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="0"/>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/COCID-19-TW-PlaceCode.xlsx
+++ b/COCID-19-TW-PlaceCode.xlsx
@@ -325,7 +325,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -380,6 +380,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -402,7 +405,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="69">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -442,6 +445,9 @@
     <cellStyle name="已瀏覽過的超連結" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
@@ -799,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25:N25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -966,6 +972,15 @@
       <c r="N3" s="5">
         <v>107</v>
       </c>
+      <c r="O3" s="5">
+        <v>108</v>
+      </c>
+      <c r="P3" s="5">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>111</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="18">
       <c r="A4" t="s">
@@ -1010,6 +1025,15 @@
       <c r="N4" s="5">
         <v>37</v>
       </c>
+      <c r="O4" s="5">
+        <v>37</v>
+      </c>
+      <c r="P4" s="5">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="18">
       <c r="A5" t="s">
@@ -1054,6 +1078,15 @@
       <c r="N5" s="5">
         <v>14</v>
       </c>
+      <c r="O5" s="5">
+        <v>14</v>
+      </c>
+      <c r="P5" s="5">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="18">
       <c r="A6" t="s">
@@ -1098,6 +1131,15 @@
       <c r="N6" s="5">
         <v>28</v>
       </c>
+      <c r="O6" s="5">
+        <v>28</v>
+      </c>
+      <c r="P6" s="5">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="18">
       <c r="A7" t="s">
@@ -1142,6 +1184,15 @@
       <c r="N7" s="5">
         <v>6</v>
       </c>
+      <c r="O7" s="5">
+        <v>6</v>
+      </c>
+      <c r="P7" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="18">
       <c r="A8" t="s">
@@ -1186,6 +1237,15 @@
       <c r="N8" s="5">
         <v>11</v>
       </c>
+      <c r="O8" s="5">
+        <v>11</v>
+      </c>
+      <c r="P8" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="18">
       <c r="A9" t="s">
@@ -1230,6 +1290,15 @@
       <c r="N9" s="5">
         <v>3</v>
       </c>
+      <c r="O9" s="5">
+        <v>3</v>
+      </c>
+      <c r="P9" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="18">
       <c r="A10" t="s">
@@ -1272,6 +1341,15 @@
         <v>86</v>
       </c>
       <c r="N10" s="5">
+        <v>86</v>
+      </c>
+      <c r="O10" s="5">
+        <v>86</v>
+      </c>
+      <c r="P10" s="5">
+        <v>86</v>
+      </c>
+      <c r="Q10" s="5">
         <v>86</v>
       </c>
     </row>
@@ -1318,6 +1396,15 @@
       <c r="N11" s="5">
         <v>43</v>
       </c>
+      <c r="O11" s="5">
+        <v>43</v>
+      </c>
+      <c r="P11" s="5">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="18">
       <c r="A12" t="s">
@@ -1362,6 +1449,15 @@
       <c r="N12" s="5">
         <v>6</v>
       </c>
+      <c r="O12" s="5">
+        <v>6</v>
+      </c>
+      <c r="P12" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="18">
       <c r="A13" t="s">
@@ -1406,6 +1502,15 @@
       <c r="N13" s="5">
         <v>2</v>
       </c>
+      <c r="O13" s="5">
+        <v>2</v>
+      </c>
+      <c r="P13" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="18">
       <c r="A14" t="s">
@@ -1450,6 +1555,15 @@
       <c r="N14" s="5">
         <v>3</v>
       </c>
+      <c r="O14" s="5">
+        <v>3</v>
+      </c>
+      <c r="P14" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="18">
       <c r="A15" t="s">
@@ -1494,6 +1608,15 @@
       <c r="N15" s="5">
         <v>18</v>
       </c>
+      <c r="O15" s="5">
+        <v>18</v>
+      </c>
+      <c r="P15" s="5">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="18">
       <c r="A16" t="s">
@@ -1538,8 +1661,17 @@
       <c r="N16" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="18">
+      <c r="O16" s="5">
+        <v>2</v>
+      </c>
+      <c r="P16" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="18">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1582,8 +1714,17 @@
       <c r="N17" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="18">
+      <c r="O17" s="5">
+        <v>4</v>
+      </c>
+      <c r="P17" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1626,8 +1767,17 @@
       <c r="N18" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="18">
+      <c r="O18" s="5">
+        <v>2</v>
+      </c>
+      <c r="P18" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="18">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1670,8 +1820,17 @@
       <c r="N19" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="18">
+      <c r="O19" s="5">
+        <v>7</v>
+      </c>
+      <c r="P19" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="18">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1714,8 +1873,17 @@
       <c r="N20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="18">
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="18">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1758,8 +1926,17 @@
       <c r="N21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="18">
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1802,8 +1979,17 @@
       <c r="N22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="18">
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="18">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1846,8 +2032,17 @@
       <c r="N23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="18">
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="18">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1890,8 +2085,17 @@
       <c r="N24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="17">
+      <c r="O24" s="5">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="17">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
@@ -1912,7 +2116,7 @@
         <v>329</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:N25" si="0">SUM(H3:H24)</f>
+        <f t="shared" ref="H25:Q25" si="0">SUM(H3:H24)</f>
         <v>339</v>
       </c>
       <c r="I25" s="1">
@@ -1938,6 +2142,18 @@
       <c r="N25" s="1">
         <f t="shared" si="0"/>
         <v>379</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="0"/>
+        <v>382</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="0"/>
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/COCID-19-TW-PlaceCode.xlsx
+++ b/COCID-19-TW-PlaceCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CodeBook" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -380,6 +380,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -405,7 +406,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="70">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -448,6 +449,7 @@
     <cellStyle name="已瀏覽過的超連結" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
@@ -806,7 +808,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25:Q25"/>
+      <selection activeCell="Q25" sqref="Q25:R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -981,6 +983,9 @@
       <c r="Q3" s="5">
         <v>111</v>
       </c>
+      <c r="R3" s="5">
+        <v>112</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="18">
       <c r="A4" t="s">
@@ -1034,6 +1039,9 @@
       <c r="Q4" s="5">
         <v>37</v>
       </c>
+      <c r="R4" s="5">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="18">
       <c r="A5" t="s">
@@ -1087,6 +1095,9 @@
       <c r="Q5" s="5">
         <v>14</v>
       </c>
+      <c r="R5" s="5">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="18">
       <c r="A6" t="s">
@@ -1140,6 +1151,9 @@
       <c r="Q6" s="5">
         <v>29</v>
       </c>
+      <c r="R6" s="5">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="18">
       <c r="A7" t="s">
@@ -1193,6 +1207,9 @@
       <c r="Q7" s="5">
         <v>6</v>
       </c>
+      <c r="R7" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="18">
       <c r="A8" t="s">
@@ -1246,6 +1263,9 @@
       <c r="Q8" s="5">
         <v>11</v>
       </c>
+      <c r="R8" s="5">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="18">
       <c r="A9" t="s">
@@ -1299,6 +1319,9 @@
       <c r="Q9" s="5">
         <v>3</v>
       </c>
+      <c r="R9" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="18">
       <c r="A10" t="s">
@@ -1351,6 +1374,9 @@
       </c>
       <c r="Q10" s="5">
         <v>86</v>
+      </c>
+      <c r="R10" s="5">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="18">
@@ -1405,6 +1431,9 @@
       <c r="Q11" s="5">
         <v>44</v>
       </c>
+      <c r="R11" s="5">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="18">
       <c r="A12" t="s">
@@ -1458,6 +1487,9 @@
       <c r="Q12" s="5">
         <v>6</v>
       </c>
+      <c r="R12" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="18">
       <c r="A13" t="s">
@@ -1511,6 +1543,9 @@
       <c r="Q13" s="5">
         <v>2</v>
       </c>
+      <c r="R13" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="18">
       <c r="A14" t="s">
@@ -1564,6 +1599,9 @@
       <c r="Q14" s="5">
         <v>3</v>
       </c>
+      <c r="R14" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="18">
       <c r="A15" t="s">
@@ -1617,6 +1655,9 @@
       <c r="Q15" s="5">
         <v>18</v>
       </c>
+      <c r="R15" s="5">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="18">
       <c r="A16" t="s">
@@ -1670,8 +1711,11 @@
       <c r="Q16" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="18">
+      <c r="R16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="18">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1723,8 +1767,11 @@
       <c r="Q17" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="18">
+      <c r="R17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1776,8 +1823,11 @@
       <c r="Q18" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="18">
+      <c r="R18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="18">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1829,8 +1879,11 @@
       <c r="Q19" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="18">
+      <c r="R19" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="18">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1882,8 +1935,11 @@
       <c r="Q20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="18">
+      <c r="R20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="18">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1935,8 +1991,11 @@
       <c r="Q21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="18">
+      <c r="R21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="18">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1988,8 +2047,11 @@
       <c r="Q22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="18">
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="18">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2041,8 +2103,11 @@
       <c r="Q23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="18">
+      <c r="R23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="18">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2094,8 +2159,11 @@
       <c r="Q24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="17">
+      <c r="R24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="17">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
@@ -2116,7 +2184,7 @@
         <v>329</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:Q25" si="0">SUM(H3:H24)</f>
+        <f t="shared" ref="H25:R25" si="0">SUM(H3:H24)</f>
         <v>339</v>
       </c>
       <c r="I25" s="1">
@@ -2154,6 +2222,10 @@
       <c r="Q25" s="1">
         <f t="shared" si="0"/>
         <v>385</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="0"/>
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/COCID-19-TW-PlaceCode.xlsx
+++ b/COCID-19-TW-PlaceCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CodeBook" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t xml:space="preserve">name                  </t>
   </si>
@@ -247,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,6 +307,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -325,7 +333,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="70">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -396,8 +404,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -405,8 +414,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="53"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="70">
+  <cellStyles count="71">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -450,6 +460,7 @@
     <cellStyle name="已瀏覽過的超連結" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
@@ -805,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25:R25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25:S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -819,9 +830,10 @@
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="21" max="22" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="A1" s="4"/>
       <c r="D1" s="3">
         <v>43919</v>
@@ -871,8 +883,17 @@
       <c r="S1" s="3">
         <v>43934</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="17">
+      <c r="T1" s="3">
+        <v>43935</v>
+      </c>
+      <c r="U1" s="3">
+        <v>43936</v>
+      </c>
+      <c r="V1" s="3">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -930,8 +951,17 @@
       <c r="S2" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="18">
+      <c r="T2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -986,8 +1016,11 @@
       <c r="R3" s="5">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="18">
+      <c r="S3" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1075,11 @@
       <c r="R4" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="18">
+      <c r="S4" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="18">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1098,8 +1134,11 @@
       <c r="R5" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="18">
+      <c r="S5" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="18">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1154,8 +1193,11 @@
       <c r="R6" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="18">
+      <c r="S6" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="18">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1210,8 +1252,11 @@
       <c r="R7" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="18">
+      <c r="S7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="18">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1266,8 +1311,11 @@
       <c r="R8" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="18">
+      <c r="S8" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="18">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1322,8 +1370,11 @@
       <c r="R9" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="18">
+      <c r="S9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="18">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1378,8 +1429,11 @@
       <c r="R10" s="5">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="18">
+      <c r="S10" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="18">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1434,8 +1488,11 @@
       <c r="R11" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="18">
+      <c r="S11" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="18">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1547,11 @@
       <c r="R12" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="18">
+      <c r="S12" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="18">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1546,8 +1606,11 @@
       <c r="R13" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="18">
+      <c r="S13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="18">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1602,8 +1665,11 @@
       <c r="R14" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="18">
+      <c r="S14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="18">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1658,8 +1724,11 @@
       <c r="R15" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="18">
+      <c r="S15" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="18">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1714,8 +1783,11 @@
       <c r="R16" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="18">
+      <c r="S16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="18">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1770,8 +1842,11 @@
       <c r="R17" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="18">
+      <c r="S17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1826,8 +1901,11 @@
       <c r="R18" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="18">
+      <c r="S18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1882,8 +1960,11 @@
       <c r="R19" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="18">
+      <c r="S19" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1938,8 +2019,11 @@
       <c r="R20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="18">
+      <c r="S20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="18">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1994,8 +2078,11 @@
       <c r="R21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="18">
+      <c r="S21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="18">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2050,8 +2137,11 @@
       <c r="R22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="18">
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="18">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2106,8 +2196,11 @@
       <c r="R23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="18">
+      <c r="S23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="18">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2162,8 +2255,11 @@
       <c r="R24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="17">
+      <c r="S24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="17">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
@@ -2184,7 +2280,7 @@
         <v>329</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:R25" si="0">SUM(H3:H24)</f>
+        <f t="shared" ref="H25:S25" si="0">SUM(H3:H24)</f>
         <v>339</v>
       </c>
       <c r="I25" s="1">
@@ -2226,6 +2322,10 @@
       <c r="R25" s="1">
         <f t="shared" si="0"/>
         <v>388</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="0"/>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
